--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2620.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2620.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.7868230197158601</v>
+        <v>1.276191830635071</v>
       </c>
       <c r="B1">
-        <v>1.633167728483428</v>
+        <v>2.247664928436279</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>4.309806823730469</v>
       </c>
       <c r="D1">
-        <v>1.746546196663206</v>
+        <v>3.008450269699097</v>
       </c>
       <c r="E1">
-        <v>0.9105457866564033</v>
+        <v>1.352496385574341</v>
       </c>
     </row>
   </sheetData>
